--- a/progress-excel/the-difference-engine.xlsx
+++ b/progress-excel/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -80,12 +80,6 @@
     <t xml:space="preserve">     /templates/team-members.html</t>
   </si>
   <si>
-    <t xml:space="preserve">     /projects/womens-power-index/research.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     /projects/womens-power-index/research#nav-state-of-the-index</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
@@ -156,6 +150,15 @@
   </si>
   <si>
     <t>unioficar uppertitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /templates/projects/womens-power-index/research.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /templates/projects/womens-power-index/research.html#state-of-the-index</t>
+  </si>
+  <si>
+    <t>unificar hero's</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,15 +320,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +357,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,17 +665,17 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="F2" s="18" t="s">
-        <v>28</v>
+      <c r="C2" s="19"/>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,212 +689,212 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>26</v>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="F5" s="17" t="s">
-        <v>27</v>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -907,52 +904,57 @@
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>33</v>
+      <c r="A30" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/progress-excel/the-difference-engine.xlsx
+++ b/progress-excel/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -116,9 +116,6 @@
     <t>verificar las url's</t>
   </si>
   <si>
-    <t>optimizar css modular hero + bloques de contenido</t>
-  </si>
-  <si>
     <t>hacer buttons en womens-power - video</t>
   </si>
   <si>
@@ -158,7 +155,67 @@
     <t xml:space="preserve">     /templates/projects/womens-power-index/research.html#state-of-the-index</t>
   </si>
   <si>
-    <t>unificar hero's</t>
+    <t xml:space="preserve">optimizar css modular hero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">site </t>
+  </si>
+  <si>
+    <t>Page Asu</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/about</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/team</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/team/halle-aquino</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/research</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/womens-power-index</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/womens-power-index/about-us</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/womens-power-index/criteria-methodology</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/womens-power-index/research</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/womens-power-index/research#nav-state-of-the-index</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/supercharger</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/supercharger/who-should-apply</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/projects/supercharger/why-supercharger</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/news-and-events</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/news/asu-student-starts-initiative-to-help-people-without-homes</t>
+  </si>
+  <si>
+    <t>https://thedifferenceengine.asu.edu/partners</t>
+  </si>
+  <si>
+    <t>unificar hero's pasar a IMG todos</t>
   </si>
 </sst>
 </file>
@@ -300,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,19 +404,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,328 +706,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A3:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="97.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="F2" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="14" t="s">
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="13" t="s">
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="H8" s="1" t="s">
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>44</v>
+      <c r="A36" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2:C2" r:id="rId1" display="THE DIFFERENCE ENGINE"/>
+    <hyperlink ref="C3:D3" r:id="rId1" display="THE DIFFERENCE ENGINE"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+    <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="A12" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A14" r:id="rId8"/>
+    <hyperlink ref="A15" r:id="rId9"/>
+    <hyperlink ref="A16" r:id="rId10"/>
+    <hyperlink ref="A17" r:id="rId11"/>
+    <hyperlink ref="A18" r:id="rId12" location="nav-state-of-the-index"/>
+    <hyperlink ref="A19" r:id="rId13"/>
+    <hyperlink ref="A20" r:id="rId14"/>
+    <hyperlink ref="A21" r:id="rId15"/>
+    <hyperlink ref="A22" r:id="rId16"/>
+    <hyperlink ref="A23" r:id="rId17"/>
+    <hyperlink ref="A24" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>